--- a/FMS.DataUpload.PythonScript/2024简单结构汇总.xlsx
+++ b/FMS.DataUpload.PythonScript/2024简单结构汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="17680"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="395">
   <si>
     <t>日期</t>
   </si>
@@ -76,25 +76,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>陈霞-人次</t>
+    <t>杨华</t>
   </si>
   <si>
-    <t>王吉龙-人次</t>
-  </si>
-  <si>
-    <t>段雪琳-人次</t>
-  </si>
-  <si>
-    <t>杨承红-人次</t>
-  </si>
-  <si>
-    <t>陈世恒-人次</t>
-  </si>
-  <si>
-    <t>杨华-人次</t>
-  </si>
-  <si>
-    <t>零药-人次</t>
+    <t>零药</t>
   </si>
   <si>
     <t>现金</t>
@@ -118,7 +103,7 @@
     <t>中药</t>
   </si>
   <si>
-    <t>门诊人次</t>
+    <t>人次</t>
   </si>
   <si>
     <t>2024/1/1</t>
@@ -2218,8 +2203,8 @@
   <sheetPr/>
   <dimension ref="A1:CA361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2818181818182" defaultRowHeight="14"/>
@@ -2302,25 +2287,25 @@
         <v>14</v>
       </c>
       <c r="X1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -2376,86 +2361,86 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -2509,7 +2494,7 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -2614,7 +2599,7 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -2731,7 +2716,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -2850,7 +2835,7 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2965,7 +2950,7 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -3074,7 +3059,7 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -3197,7 +3182,7 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -3306,7 +3291,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -3423,7 +3408,7 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -3530,7 +3515,7 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -3643,7 +3628,7 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -3758,7 +3743,7 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -3867,7 +3852,7 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -3990,7 +3975,7 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -4099,7 +4084,7 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -4214,7 +4199,7 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
@@ -4327,7 +4312,7 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -4434,7 +4419,7 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -4547,7 +4532,7 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -4662,7 +4647,7 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -4779,7 +4764,7 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
@@ -4886,7 +4871,7 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -4993,7 +4978,7 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
@@ -5106,7 +5091,7 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
@@ -5215,7 +5200,7 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
@@ -5324,7 +5309,7 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -5437,7 +5422,7 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -5542,7 +5527,7 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -5649,7 +5634,7 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -5758,7 +5743,7 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -5871,7 +5856,7 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
@@ -5915,7 +5900,7 @@
         <v>464</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X33" s="4">
         <v>4</v>
@@ -5986,7 +5971,7 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
@@ -6089,7 +6074,7 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
@@ -6135,7 +6120,7 @@
         <v>398</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X35" s="4">
         <v>2</v>
@@ -6206,7 +6191,7 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
@@ -6317,7 +6302,7 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A37" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
@@ -6428,7 +6413,7 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -6537,7 +6522,7 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -6648,7 +6633,7 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -6767,7 +6752,7 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>4</v>
@@ -6874,7 +6859,7 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -6981,10 +6966,10 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
@@ -7096,7 +7081,7 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A44" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -7138,7 +7123,7 @@
         <v>744</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="X44" s="4">
         <v>1</v>
@@ -7209,7 +7194,7 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -7318,7 +7303,7 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A46" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
@@ -7423,10 +7408,10 @@
     </row>
     <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A47" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
@@ -7467,7 +7452,7 @@
         <v>133</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X47" s="4">
         <v>2</v>
@@ -7540,7 +7525,7 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>5</v>
@@ -7582,7 +7567,7 @@
         <v>410</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X48" s="4">
         <v>1</v>
@@ -7653,7 +7638,7 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>5</v>
@@ -7699,7 +7684,7 @@
         <v>632</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X49" s="4">
         <v>4</v>
@@ -7768,7 +7753,7 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>5</v>
@@ -7881,7 +7866,7 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A51" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>4</v>
@@ -7990,7 +7975,7 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A52" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
@@ -8105,7 +8090,7 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A53" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>4</v>
@@ -8151,7 +8136,7 @@
         <v>914</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X53" s="4">
         <v>4</v>
@@ -8222,7 +8207,7 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A54" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>5</v>
@@ -8341,7 +8326,7 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A55" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -8454,7 +8439,7 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>5</v>
@@ -8571,7 +8556,7 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A57" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>4</v>
@@ -8696,7 +8681,7 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A58" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>5</v>
@@ -8811,7 +8796,7 @@
     </row>
     <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A59" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>4</v>
@@ -8926,7 +8911,7 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>5</v>
@@ -9039,7 +9024,7 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A61" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>4</v>
@@ -9156,7 +9141,7 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A62" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>5</v>
@@ -9265,7 +9250,7 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>4</v>
@@ -9384,7 +9369,7 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A64" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>5</v>
@@ -9503,7 +9488,7 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A65" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
@@ -9614,7 +9599,7 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A66" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>5</v>
@@ -9729,7 +9714,7 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A67" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
@@ -9842,7 +9827,7 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A68" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>5</v>
@@ -9959,7 +9944,7 @@
     </row>
     <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A69" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
@@ -10070,7 +10055,7 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A70" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>5</v>
@@ -10181,7 +10166,7 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A71" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>4</v>
@@ -10296,7 +10281,7 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A72" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>5</v>
@@ -10407,7 +10392,7 @@
     </row>
     <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A73" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>4</v>
@@ -10520,7 +10505,7 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A74" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>5</v>
@@ -10625,7 +10610,7 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4</v>
@@ -10742,7 +10727,7 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>5</v>
@@ -10857,7 +10842,7 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A77" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>4</v>
@@ -10974,7 +10959,7 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A78" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>5</v>
@@ -11091,7 +11076,7 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A79" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -11202,7 +11187,7 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A80" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>5</v>
@@ -11319,7 +11304,7 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A81" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
@@ -11436,7 +11421,7 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A82" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>5</v>
@@ -11547,7 +11532,7 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A83" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
@@ -11650,7 +11635,7 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A84" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>5</v>
@@ -11765,7 +11750,7 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A85" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
@@ -11878,7 +11863,7 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A86" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>5</v>
@@ -11985,7 +11970,7 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>4</v>
@@ -12090,7 +12075,7 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A88" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>5</v>
@@ -12195,7 +12180,7 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A89" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4</v>
@@ -12304,7 +12289,7 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A90" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>5</v>
@@ -12409,7 +12394,7 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A91" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>4</v>
@@ -12522,7 +12507,7 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>5</v>
@@ -12647,7 +12632,7 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A93" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>4</v>
@@ -12756,7 +12741,7 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>5</v>
@@ -12865,7 +12850,7 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A95" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>4</v>
@@ -12972,7 +12957,7 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A96" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>5</v>
@@ -13089,7 +13074,7 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A97" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
@@ -13202,7 +13187,7 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A98" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>5</v>
@@ -13313,7 +13298,7 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A99" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>4</v>
@@ -13432,7 +13417,7 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A100" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>5</v>
@@ -13539,7 +13524,7 @@
     </row>
     <row r="101" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A101" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -13646,7 +13631,7 @@
     </row>
     <row r="102" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A102" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>5</v>
@@ -13761,7 +13746,7 @@
     </row>
     <row r="103" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A103" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>4</v>
@@ -13878,7 +13863,7 @@
     </row>
     <row r="104" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A104" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>5</v>
@@ -13993,7 +13978,7 @@
     </row>
     <row r="105" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A105" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>4</v>
@@ -14102,7 +14087,7 @@
     </row>
     <row r="106" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A106" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>5</v>
@@ -14223,7 +14208,7 @@
     </row>
     <row r="107" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A107" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>5</v>
@@ -14326,7 +14311,7 @@
     </row>
     <row r="108" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A108" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>4</v>
@@ -14439,7 +14424,7 @@
     </row>
     <row r="109" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A109" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>4</v>
@@ -14546,7 +14531,7 @@
     </row>
     <row r="110" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A110" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>5</v>
@@ -14665,7 +14650,7 @@
     </row>
     <row r="111" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A111" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>4</v>
@@ -14776,7 +14761,7 @@
     </row>
     <row r="112" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A112" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>5</v>
@@ -14891,7 +14876,7 @@
     </row>
     <row r="113" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A113" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>4</v>
@@ -15008,7 +14993,7 @@
     </row>
     <row r="114" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A114" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>5</v>
@@ -15121,7 +15106,7 @@
     </row>
     <row r="115" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A115" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>4</v>
@@ -15236,7 +15221,7 @@
     </row>
     <row r="116" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A116" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>5</v>
@@ -15347,7 +15332,7 @@
     </row>
     <row r="117" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A117" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>4</v>
@@ -15458,7 +15443,7 @@
     </row>
     <row r="118" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A118" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>5</v>
@@ -15565,7 +15550,7 @@
     </row>
     <row r="119" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A119" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>4</v>
@@ -15672,7 +15657,7 @@
     </row>
     <row r="120" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A120" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>5</v>
@@ -15787,7 +15772,7 @@
     </row>
     <row r="121" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A121" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>4</v>
@@ -15904,7 +15889,7 @@
     </row>
     <row r="122" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A122" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
@@ -16015,7 +16000,7 @@
     </row>
     <row r="123" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A123" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>4</v>
@@ -16130,7 +16115,7 @@
     </row>
     <row r="124" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A124" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>5</v>
@@ -16247,7 +16232,7 @@
     </row>
     <row r="125" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A125" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>4</v>
@@ -16358,7 +16343,7 @@
     </row>
     <row r="126" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A126" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>5</v>
@@ -16469,7 +16454,7 @@
     </row>
     <row r="127" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A127" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>4</v>
@@ -16592,7 +16577,7 @@
     </row>
     <row r="128" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A128" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>5</v>
@@ -16697,7 +16682,7 @@
     </row>
     <row r="129" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A129" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>4</v>
@@ -16808,7 +16793,7 @@
     </row>
     <row r="130" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A130" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>5</v>
@@ -16917,7 +16902,7 @@
     </row>
     <row r="131" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A131" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>4</v>
@@ -17032,7 +17017,7 @@
     </row>
     <row r="132" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A132" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>5</v>
@@ -17147,7 +17132,7 @@
     </row>
     <row r="133" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A133" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>4</v>
@@ -17256,7 +17241,7 @@
     </row>
     <row r="134" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A134" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>5</v>
@@ -17371,7 +17356,7 @@
     </row>
     <row r="135" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A135" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>4</v>
@@ -17478,7 +17463,7 @@
     </row>
     <row r="136" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A136" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>5</v>
@@ -17591,7 +17576,7 @@
     </row>
     <row r="137" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A137" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>4</v>
@@ -17706,7 +17691,7 @@
     </row>
     <row r="138" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A138" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>5</v>
@@ -17819,7 +17804,7 @@
     </row>
     <row r="139" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A139" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>4</v>
@@ -17926,7 +17911,7 @@
     </row>
     <row r="140" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A140" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>5</v>
@@ -18037,7 +18022,7 @@
     </row>
     <row r="141" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A141" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>4</v>
@@ -18154,7 +18139,7 @@
     </row>
     <row r="142" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A142" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>5</v>
@@ -18267,7 +18252,7 @@
     </row>
     <row r="143" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A143" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>4</v>
@@ -18382,7 +18367,7 @@
     </row>
     <row r="144" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A144" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>5</v>
@@ -18499,7 +18484,7 @@
     </row>
     <row r="145" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A145" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>4</v>
@@ -18616,7 +18601,7 @@
     </row>
     <row r="146" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A146" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>5</v>
@@ -18729,7 +18714,7 @@
     </row>
     <row r="147" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A147" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>4</v>
@@ -18840,7 +18825,7 @@
     </row>
     <row r="148" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A148" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>5</v>
@@ -18959,7 +18944,7 @@
     </row>
     <row r="149" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A149" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>4</v>
@@ -19068,7 +19053,7 @@
     </row>
     <row r="150" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A150" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>5</v>
@@ -19179,7 +19164,7 @@
     </row>
     <row r="151" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A151" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>4</v>
@@ -19290,7 +19275,7 @@
     </row>
     <row r="152" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A152" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>5</v>
@@ -19411,7 +19396,7 @@
     </row>
     <row r="153" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A153" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>4</v>
@@ -19524,7 +19509,7 @@
     </row>
     <row r="154" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A154" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>5</v>
@@ -19631,7 +19616,7 @@
     </row>
     <row r="155" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A155" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>4</v>
@@ -19750,7 +19735,7 @@
     </row>
     <row r="156" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A156" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>5</v>
@@ -19859,7 +19844,7 @@
     </row>
     <row r="157" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A157" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>4</v>
@@ -19966,7 +19951,7 @@
     </row>
     <row r="158" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A158" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>5</v>
@@ -20081,7 +20066,7 @@
     </row>
     <row r="159" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A159" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>4</v>
@@ -20196,7 +20181,7 @@
     </row>
     <row r="160" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A160" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>5</v>
@@ -20307,7 +20292,7 @@
     </row>
     <row r="161" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A161" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>4</v>
@@ -20416,7 +20401,7 @@
     </row>
     <row r="162" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A162" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>5</v>
@@ -20533,7 +20518,7 @@
     </row>
     <row r="163" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A163" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>4</v>
@@ -20642,7 +20627,7 @@
     </row>
     <row r="164" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A164" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>5</v>
@@ -20755,7 +20740,7 @@
     </row>
     <row r="165" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A165" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>4</v>
@@ -20866,7 +20851,7 @@
     </row>
     <row r="166" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A166" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>5</v>
@@ -20983,7 +20968,7 @@
     </row>
     <row r="167" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A167" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>4</v>
@@ -21100,7 +21085,7 @@
     </row>
     <row r="168" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A168" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>5</v>
@@ -21213,7 +21198,7 @@
     </row>
     <row r="169" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A169" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>4</v>
@@ -21330,7 +21315,7 @@
     </row>
     <row r="170" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A170" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>5</v>
@@ -21435,7 +21420,7 @@
     </row>
     <row r="171" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A171" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>4</v>
@@ -21546,7 +21531,7 @@
     </row>
     <row r="172" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A172" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>5</v>
@@ -21655,7 +21640,7 @@
     </row>
     <row r="173" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A173" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>4</v>
@@ -21770,7 +21755,7 @@
     </row>
     <row r="174" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A174" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>5</v>
@@ -21883,7 +21868,7 @@
     </row>
     <row r="175" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A175" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>4</v>
@@ -21994,7 +21979,7 @@
     </row>
     <row r="176" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A176" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>5</v>
@@ -22103,7 +22088,7 @@
     </row>
     <row r="177" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A177" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>4</v>
@@ -22210,7 +22195,7 @@
     </row>
     <row r="178" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A178" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>5</v>
@@ -22317,7 +22302,7 @@
     </row>
     <row r="179" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A179" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>4</v>
@@ -22430,7 +22415,7 @@
     </row>
     <row r="180" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A180" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>5</v>
@@ -22541,7 +22526,7 @@
     </row>
     <row r="181" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A181" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>4</v>
@@ -22654,7 +22639,7 @@
     </row>
     <row r="182" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A182" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>5</v>
@@ -22769,7 +22754,7 @@
     </row>
     <row r="183" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A183" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>4</v>
@@ -22884,7 +22869,7 @@
     </row>
     <row r="184" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A184" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>5</v>
@@ -22991,7 +22976,7 @@
     </row>
     <row r="185" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A185" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>4</v>
@@ -23106,7 +23091,7 @@
     </row>
     <row r="186" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A186" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>5</v>
@@ -23219,7 +23204,7 @@
     </row>
     <row r="187" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A187" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>4</v>
@@ -23328,7 +23313,7 @@
     </row>
     <row r="188" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A188" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>5</v>
@@ -23441,7 +23426,7 @@
     </row>
     <row r="189" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A189" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>4</v>
@@ -23552,7 +23537,7 @@
     </row>
     <row r="190" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A190" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>5</v>
@@ -23667,7 +23652,7 @@
     </row>
     <row r="191" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A191" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -23776,7 +23761,7 @@
     </row>
     <row r="192" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A192" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>5</v>
@@ -23883,7 +23868,7 @@
     </row>
     <row r="193" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A193" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -23996,7 +23981,7 @@
     </row>
     <row r="194" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A194" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>5</v>
@@ -24111,7 +24096,7 @@
     </row>
     <row r="195" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A195" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>4</v>
@@ -24222,7 +24207,7 @@
     </row>
     <row r="196" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A196" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>5</v>
@@ -24327,7 +24312,7 @@
     </row>
     <row r="197" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A197" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -24448,7 +24433,7 @@
     </row>
     <row r="198" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A198" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>5</v>
@@ -24555,7 +24540,7 @@
     </row>
     <row r="199" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A199" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -24668,7 +24653,7 @@
     </row>
     <row r="200" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A200" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>5</v>
@@ -24781,7 +24766,7 @@
     </row>
     <row r="201" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A201" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -24888,7 +24873,7 @@
     </row>
     <row r="202" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A202" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>5</v>
@@ -25001,7 +24986,7 @@
     </row>
     <row r="203" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A203" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -25114,7 +25099,7 @@
     </row>
     <row r="204" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A204" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>5</v>
@@ -25227,7 +25212,7 @@
     </row>
     <row r="205" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A205" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -25336,7 +25321,7 @@
     </row>
     <row r="206" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A206" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -25447,7 +25432,7 @@
     </row>
     <row r="207" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A207" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>5</v>
@@ -25560,7 +25545,7 @@
     </row>
     <row r="208" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A208" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>5</v>
@@ -25669,10 +25654,10 @@
     </row>
     <row r="209" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A209" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -25780,7 +25765,7 @@
     </row>
     <row r="210" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A210" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>5</v>
@@ -25885,10 +25870,10 @@
     </row>
     <row r="211" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A211" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -26000,7 +25985,7 @@
     </row>
     <row r="212" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A212" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>5</v>
@@ -26105,7 +26090,7 @@
     </row>
     <row r="213" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A213" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -26224,7 +26209,7 @@
     </row>
     <row r="214" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A214" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>5</v>
@@ -26341,7 +26326,7 @@
     </row>
     <row r="215" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A215" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -26454,7 +26439,7 @@
     </row>
     <row r="216" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A216" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>5</v>
@@ -26561,7 +26546,7 @@
     </row>
     <row r="217" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A217" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>4</v>
@@ -26672,7 +26657,7 @@
     </row>
     <row r="218" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A218" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>4</v>
@@ -26789,7 +26774,7 @@
     </row>
     <row r="219" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A219" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>4</v>
@@ -26894,7 +26879,7 @@
     </row>
     <row r="220" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A220" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>4</v>
@@ -27007,7 +26992,7 @@
     </row>
     <row r="221" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A221" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>4</v>
@@ -27116,7 +27101,7 @@
     </row>
     <row r="222" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A222" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>5</v>
@@ -27229,7 +27214,7 @@
     </row>
     <row r="223" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A223" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>5</v>
@@ -27340,7 +27325,7 @@
     </row>
     <row r="224" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A224" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>5</v>
@@ -27443,7 +27428,7 @@
     </row>
     <row r="225" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A225" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>5</v>
@@ -27558,7 +27543,7 @@
     </row>
     <row r="226" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A226" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>5</v>
@@ -27663,7 +27648,7 @@
     </row>
     <row r="227" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A227" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>4</v>
@@ -27776,7 +27761,7 @@
     </row>
     <row r="228" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A228" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>5</v>
@@ -27885,7 +27870,7 @@
     </row>
     <row r="229" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A229" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>4</v>
@@ -27998,7 +27983,7 @@
     </row>
     <row r="230" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A230" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>5</v>
@@ -28113,7 +28098,7 @@
     </row>
     <row r="231" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A231" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>4</v>
@@ -28224,7 +28209,7 @@
     </row>
     <row r="232" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A232" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>5</v>
@@ -28343,7 +28328,7 @@
     </row>
     <row r="233" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A233" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>4</v>
@@ -28452,7 +28437,7 @@
     </row>
     <row r="234" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A234" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>5</v>
@@ -28559,7 +28544,7 @@
     </row>
     <row r="235" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A235" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>4</v>
@@ -28670,7 +28655,7 @@
     </row>
     <row r="236" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A236" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>5</v>
@@ -28779,7 +28764,7 @@
     </row>
     <row r="237" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A237" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>4</v>
@@ -28892,7 +28877,7 @@
     </row>
     <row r="238" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A238" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>5</v>
@@ -29001,7 +28986,7 @@
     </row>
     <row r="239" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A239" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>4</v>
@@ -29112,7 +29097,7 @@
     </row>
     <row r="240" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A240" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>5</v>
@@ -29215,7 +29200,7 @@
     </row>
     <row r="241" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A241" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>4</v>
@@ -29328,7 +29313,7 @@
     </row>
     <row r="242" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A242" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>5</v>
@@ -29439,7 +29424,7 @@
     </row>
     <row r="243" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A243" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>4</v>
@@ -29550,7 +29535,7 @@
     </row>
     <row r="244" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A244" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>5</v>
@@ -29663,7 +29648,7 @@
     </row>
     <row r="245" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A245" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>4</v>
@@ -29778,7 +29763,7 @@
     </row>
     <row r="246" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A246" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>5</v>
@@ -29897,7 +29882,7 @@
     </row>
     <row r="247" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A247" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>4</v>
@@ -30002,7 +29987,7 @@
     </row>
     <row r="248" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A248" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>5</v>
@@ -30115,7 +30100,7 @@
     </row>
     <row r="249" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A249" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>4</v>
@@ -30230,7 +30215,7 @@
     </row>
     <row r="250" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A250" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>5</v>
@@ -30351,7 +30336,7 @@
     </row>
     <row r="251" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A251" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>4</v>
@@ -30464,7 +30449,7 @@
     </row>
     <row r="252" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A252" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>5</v>
@@ -30571,7 +30556,7 @@
     </row>
     <row r="253" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A253" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>4</v>
@@ -30690,7 +30675,7 @@
     </row>
     <row r="254" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A254" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>5</v>
@@ -30799,7 +30784,7 @@
     </row>
     <row r="255" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A255" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>4</v>
@@ -30908,7 +30893,7 @@
     </row>
     <row r="256" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A256" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>5</v>
@@ -31015,7 +31000,7 @@
     </row>
     <row r="257" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A257" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>4</v>
@@ -31130,7 +31115,7 @@
     </row>
     <row r="258" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A258" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>5</v>
@@ -31243,7 +31228,7 @@
     </row>
     <row r="259" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A259" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>4</v>
@@ -31350,7 +31335,7 @@
     </row>
     <row r="260" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A260" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>5</v>
@@ -31467,7 +31452,7 @@
     </row>
     <row r="261" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A261" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>4</v>
@@ -31578,7 +31563,7 @@
     </row>
     <row r="262" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A262" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>5</v>
@@ -31697,7 +31682,7 @@
     </row>
     <row r="263" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A263" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>4</v>
@@ -31810,7 +31795,7 @@
     </row>
     <row r="264" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A264" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>5</v>
@@ -31927,7 +31912,7 @@
     </row>
     <row r="265" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A265" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>4</v>
@@ -32040,7 +32025,7 @@
     </row>
     <row r="266" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A266" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>5</v>
@@ -32151,7 +32136,7 @@
     </row>
     <row r="267" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A267" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>4</v>
@@ -32266,7 +32251,7 @@
     </row>
     <row r="268" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A268" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>5</v>
@@ -32377,7 +32362,7 @@
     </row>
     <row r="269" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A269" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>4</v>
@@ -32484,7 +32469,7 @@
     </row>
     <row r="270" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A270" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>5</v>
@@ -32593,7 +32578,7 @@
     </row>
     <row r="271" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A271" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>5</v>
@@ -32696,7 +32681,7 @@
     </row>
     <row r="272" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A272" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>5</v>
@@ -32797,7 +32782,7 @@
     </row>
     <row r="273" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A273" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>4</v>
@@ -32908,7 +32893,7 @@
     </row>
     <row r="274" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A274" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>4</v>
@@ -33021,7 +33006,7 @@
     </row>
     <row r="275" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A275" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>4</v>
@@ -33124,7 +33109,7 @@
     </row>
     <row r="276" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A276" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>5</v>
@@ -33235,7 +33220,7 @@
     </row>
     <row r="277" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A277" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>4</v>
@@ -33348,7 +33333,7 @@
     </row>
     <row r="278" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A278" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>5</v>
@@ -33465,7 +33450,7 @@
     </row>
     <row r="279" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A279" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>4</v>
@@ -33580,7 +33565,7 @@
     </row>
     <row r="280" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A280" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>5</v>
@@ -33693,7 +33678,7 @@
     </row>
     <row r="281" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A281" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>4</v>
@@ -33806,7 +33791,7 @@
     </row>
     <row r="282" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A282" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>5</v>
@@ -33917,7 +33902,7 @@
     </row>
     <row r="283" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A283" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>4</v>
@@ -34028,7 +34013,7 @@
     </row>
     <row r="284" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A284" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>5</v>
@@ -34143,7 +34128,7 @@
     </row>
     <row r="285" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A285" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>4</v>
@@ -34260,7 +34245,7 @@
     </row>
     <row r="286" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A286" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>5</v>
@@ -34373,7 +34358,7 @@
     </row>
     <row r="287" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A287" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>4</v>
@@ -34490,7 +34475,7 @@
     </row>
     <row r="288" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A288" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>5</v>
@@ -34613,7 +34598,7 @@
     </row>
     <row r="289" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A289" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>4</v>
@@ -34722,7 +34707,7 @@
     </row>
     <row r="290" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A290" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>5</v>
@@ -34831,7 +34816,7 @@
     </row>
     <row r="291" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A291" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>4</v>
@@ -34944,7 +34929,7 @@
     </row>
     <row r="292" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A292" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>5</v>
@@ -35069,7 +35054,7 @@
     </row>
     <row r="293" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A293" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>4</v>
@@ -35186,7 +35171,7 @@
     </row>
     <row r="294" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A294" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>5</v>
@@ -35303,7 +35288,7 @@
     </row>
     <row r="295" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A295" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>4</v>
@@ -35422,7 +35407,7 @@
     </row>
     <row r="296" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A296" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>5</v>
@@ -35531,7 +35516,7 @@
     </row>
     <row r="297" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A297" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>4</v>
@@ -35646,7 +35631,7 @@
     </row>
     <row r="298" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A298" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>5</v>
@@ -35759,7 +35744,7 @@
     </row>
     <row r="299" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A299" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>4</v>
@@ -35878,7 +35863,7 @@
     </row>
     <row r="300" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A300" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>5</v>
@@ -35991,7 +35976,7 @@
     </row>
     <row r="301" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A301" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>4</v>
@@ -36104,7 +36089,7 @@
     </row>
     <row r="302" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A302" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>5</v>
@@ -36223,7 +36208,7 @@
     </row>
     <row r="303" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A303" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>4</v>
@@ -36328,7 +36313,7 @@
     </row>
     <row r="304" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A304" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>5</v>
@@ -36443,7 +36428,7 @@
     </row>
     <row r="305" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A305" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>4</v>
@@ -36554,7 +36539,7 @@
     </row>
     <row r="306" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A306" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>5</v>
@@ -36665,7 +36650,7 @@
     </row>
     <row r="307" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A307" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>4</v>
@@ -36772,7 +36757,7 @@
     </row>
     <row r="308" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A308" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>5</v>
@@ -36883,7 +36868,7 @@
     </row>
     <row r="309" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A309" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>4</v>
@@ -36994,7 +36979,7 @@
     </row>
     <row r="310" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A310" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>5</v>
@@ -37107,7 +37092,7 @@
     </row>
     <row r="311" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A311" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>4</v>
@@ -37222,7 +37207,7 @@
     </row>
     <row r="312" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A312" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>5</v>
@@ -37337,7 +37322,7 @@
     </row>
     <row r="313" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A313" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>4</v>
@@ -37452,7 +37437,7 @@
     </row>
     <row r="314" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A314" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>5</v>
@@ -37565,7 +37550,7 @@
     </row>
     <row r="315" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A315" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>4</v>
@@ -37678,7 +37663,7 @@
     </row>
     <row r="316" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A316" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>5</v>
@@ -37799,7 +37784,7 @@
     </row>
     <row r="317" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A317" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>4</v>
@@ -37906,7 +37891,7 @@
     </row>
     <row r="318" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A318" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>5</v>
@@ -38017,7 +38002,7 @@
     </row>
     <row r="319" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A319" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>4</v>
@@ -38126,7 +38111,7 @@
     </row>
     <row r="320" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A320" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>5</v>
@@ -38247,7 +38232,7 @@
     </row>
     <row r="321" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A321" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>4</v>
@@ -38354,7 +38339,7 @@
     </row>
     <row r="322" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A322" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>5</v>
@@ -38473,7 +38458,7 @@
     </row>
     <row r="323" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A323" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>4</v>
@@ -38582,7 +38567,7 @@
     </row>
     <row r="324" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A324" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>5</v>
@@ -38687,7 +38672,7 @@
     </row>
     <row r="325" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A325" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>4</v>
@@ -38798,7 +38783,7 @@
     </row>
     <row r="326" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A326" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>5</v>
@@ -38907,7 +38892,7 @@
     </row>
     <row r="327" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A327" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>4</v>
@@ -39018,7 +39003,7 @@
     </row>
     <row r="328" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A328" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>5</v>
@@ -39131,7 +39116,7 @@
     </row>
     <row r="329" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A329" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>4</v>
@@ -39240,7 +39225,7 @@
     </row>
     <row r="330" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A330" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>5</v>
@@ -39359,7 +39344,7 @@
     </row>
     <row r="331" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A331" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>4</v>
@@ -39466,7 +39451,7 @@
     </row>
     <row r="332" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A332" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>5</v>
@@ -39581,7 +39566,7 @@
     </row>
     <row r="333" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A333" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>4</v>
@@ -39700,7 +39685,7 @@
     </row>
     <row r="334" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A334" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>5</v>
@@ -39819,7 +39804,7 @@
     </row>
     <row r="335" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A335" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>4</v>
@@ -39930,7 +39915,7 @@
     </row>
     <row r="336" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A336" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>5</v>
@@ -40047,7 +40032,7 @@
     </row>
     <row r="337" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A337" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>4</v>
@@ -40170,7 +40155,7 @@
     </row>
     <row r="338" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A338" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>5</v>
@@ -40281,7 +40266,7 @@
     </row>
     <row r="339" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A339" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>4</v>
@@ -40392,7 +40377,7 @@
     </row>
     <row r="340" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A340" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>5</v>
@@ -40505,7 +40490,7 @@
     </row>
     <row r="341" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A341" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>4</v>
@@ -40618,7 +40603,7 @@
     </row>
     <row r="342" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A342" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>5</v>
@@ -40727,7 +40712,7 @@
     </row>
     <row r="343" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A343" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>4</v>
@@ -40786,7 +40771,7 @@
         <v>16</v>
       </c>
       <c r="AD343" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AE343" s="5"/>
       <c r="AF343" s="5"/>
@@ -40840,7 +40825,7 @@
     </row>
     <row r="344" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A344" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>5</v>
@@ -40959,7 +40944,7 @@
     </row>
     <row r="345" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A345" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>4</v>
@@ -41066,7 +41051,7 @@
     </row>
     <row r="346" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A346" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>5</v>
@@ -41175,7 +41160,7 @@
     </row>
     <row r="347" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A347" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>4</v>
@@ -41290,7 +41275,7 @@
     </row>
     <row r="348" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A348" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>5</v>
@@ -41411,7 +41396,7 @@
     </row>
     <row r="349" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A349" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>4</v>
@@ -41524,7 +41509,7 @@
     </row>
     <row r="350" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A350" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>5</v>
@@ -41639,7 +41624,7 @@
     </row>
     <row r="351" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A351" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>4</v>
@@ -41760,7 +41745,7 @@
     </row>
     <row r="352" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A352" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>5</v>
@@ -41865,7 +41850,7 @@
     </row>
     <row r="353" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A353" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>4</v>
@@ -41982,7 +41967,7 @@
     </row>
     <row r="354" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A354" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>5</v>
@@ -42095,7 +42080,7 @@
     </row>
     <row r="355" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A355" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>4</v>
@@ -42208,7 +42193,7 @@
     </row>
     <row r="356" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A356" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>5</v>
@@ -42321,7 +42306,7 @@
     </row>
     <row r="357" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A357" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>4</v>
@@ -42440,7 +42425,7 @@
     </row>
     <row r="358" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A358" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>5</v>
@@ -42559,7 +42544,7 @@
     </row>
     <row r="359" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A359" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>4</v>
@@ -42676,7 +42661,7 @@
     </row>
     <row r="360" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A360" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>5</v>
@@ -42785,7 +42770,7 @@
     </row>
     <row r="361" s="2" customFormat="1" ht="18" customHeight="1" spans="1:79">
       <c r="A361" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>4</v>
